--- a/Collections/Germany/#Germany#Weimar_Republic#Rentenmark#Regular#[1923-1929]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#Weimar_Republic#Rentenmark#Regular#[1923-1929]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9743C8-AADC-4F41-BAAF-B558FD92644A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F387DD20-18F2-42ED-A1AC-1E172DFD4375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,13 @@
     <sheet name="50RP" sheetId="36" r:id="rId5"/>
     <sheet name="Links" sheetId="21" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10RP'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1RP'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2RP'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'50RP'!$B$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5RP'!$B$2:$J$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1199,18 +1206,9 @@
     <t>№</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -1395,6 +1393,15 @@
   </si>
   <si>
     <t>Obv: Face value in a rhombus and four oak leaves, surrounded by the circular legend</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Composition</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -1698,14 +1705,10 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,652 +1732,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="73">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2383,6 +1750,566 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2414,9 +2341,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="81" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2725,55 +2652,55 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="50.36328125" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
@@ -2782,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -2800,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -2817,29 +2744,29 @@
         <v>1923</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="K3" s="20">
         <v>0</v>
@@ -2869,29 +2796,29 @@
         <v>1924</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="K4" s="20">
         <v>0</v>
@@ -2921,14 +2848,14 @@
         <v>1925</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>0</v>
@@ -3135,10 +3062,10 @@
         <v>1929</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="13" t="s">
@@ -3151,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>0</v>
@@ -3183,9 +3110,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
@@ -3215,7 +3142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:P3">
-    <cfRule type="containsText" dxfId="79" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3232,12 +3159,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3254,12 +3181,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="76" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:P7">
-    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3276,7 +3203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:P8 K9:M9 O9:P9">
-    <cfRule type="containsText" dxfId="74" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3365,17 +3292,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:P4">
-    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="72" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="71" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3392,22 +3319,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:P5">
-    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:P6">
-    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3424,7 +3351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3442,55 +3369,55 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="50.36328125" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
@@ -3499,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -3517,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -3534,29 +3461,29 @@
         <v>1923</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K3" s="20">
         <v>0</v>
@@ -3586,29 +3513,29 @@
         <v>1924</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="K4" s="20">
         <v>0</v>
@@ -3904,9 +3831,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{AF67B5F9-C736-4515-B6E5-F4C53E9FEE96}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
@@ -3936,7 +3863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:P3">
-    <cfRule type="containsText" dxfId="65" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3953,7 +3880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="64" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3970,17 +3897,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="63" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:P7">
-    <cfRule type="containsText" dxfId="62" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:P8">
-    <cfRule type="containsText" dxfId="61" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4057,17 +3984,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:P4">
-    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4084,22 +4011,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:P6">
-    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:P5">
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4116,7 +4043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:P9">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4146,55 +4073,55 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="50.36328125" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
@@ -4203,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -4221,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -4238,26 +4165,26 @@
         <v>1923</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>0</v>
@@ -4290,29 +4217,29 @@
         <v>1924</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="K4" s="20">
         <v>1</v>
@@ -4608,9 +4535,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{92101066-CDB1-4BB7-BA91-F23DA1D05AEC}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
@@ -4628,7 +4555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O3">
-    <cfRule type="containsText" dxfId="52" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4645,7 +4572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="51" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4662,12 +4589,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:P7">
-    <cfRule type="containsText" dxfId="49" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4684,7 +4611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:P8">
-    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4737,17 +4664,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:P4">
-    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4764,12 +4691,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:P6">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4786,7 +4713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4803,7 +4730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:P5">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4820,7 +4747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:P9">
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4837,7 +4764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4867,55 +4794,55 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="50.36328125" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
@@ -4924,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -4942,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -4959,26 +4886,26 @@
         <v>1923</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>0</v>
@@ -5011,29 +4938,29 @@
         <v>1924</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="K4" s="20">
         <v>0</v>
@@ -5063,10 +4990,10 @@
         <v>1925</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="13" t="s">
@@ -5079,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>0</v>
@@ -5327,9 +5254,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{8DFA4E79-36A2-4410-80F1-685B24C02F73}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
@@ -5347,7 +5274,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O3">
-    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5364,7 +5291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5381,12 +5308,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:P7">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5403,7 +5330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:P8">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5456,17 +5383,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:P4">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:P6">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5483,7 +5410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5500,7 +5427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:P9">
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5517,7 +5444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5534,7 +5461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5551,7 +5478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5580,12 +5507,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M5 O5:P5">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5603,55 +5530,55 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="50.36328125" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="16" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
@@ -5660,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
@@ -5678,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
@@ -5695,29 +5622,29 @@
         <v>1923</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="K3" s="20">
         <v>0</v>
@@ -5747,29 +5674,29 @@
         <v>1924</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="K4" s="20">
         <v>0</v>
@@ -6065,9 +5992,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:J2" xr:uid="{EF867DAB-A374-402F-B11B-DF07AB1B6286}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:P1"/>
@@ -6267,12 +6194,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6289,12 +6216,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:P5">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6339,10 +6266,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6350,10 +6277,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
